--- a/compare/compare_code/out/results/idmp_different_resources_in_ontology_revisions.xlsx
+++ b/compare/compare_code/out/results/idmp_different_resources_in_ontology_revisions.xlsx
@@ -1,27 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pawel.garbacz/Documents/edmc/github/edmc/tools/compare/compare_code/out/results/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B499A2-4CC3-A84C-81BE-020CC0280245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>ontology</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>resources in master_v0.3.0 but not master ontology revision</t>
   </si>
   <si>
@@ -53,25 +69,13 @@
   </si>
   <si>
     <t>ISO11615-MedicinalProducts</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2002/07/owl#Class</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2002/07/owl#NamedIndividual</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2002/07/owl#ObjectProperty</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2002/07/owl#DatatypeProperty</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,11 +92,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -127,33 +131,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -191,7 +198,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -225,6 +232,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -259,9 +267,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -434,300 +443,248 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="48.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="B3">
         <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="H3" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
-      <c r="D4">
+      <c r="H4" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f>SUM(H1:H5)</f>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
+      <c r="B8">
+        <v>73</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
-      <c r="D8">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>42</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
         <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
+      <c r="B15">
+        <v>74</v>
       </c>
       <c r="C15">
         <v>74</v>
       </c>
-      <c r="D15">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
         <v>12</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="D17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C19">
         <v>0</v>
       </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" location="Class"/>
-    <hyperlink ref="B3" r:id="rId2" location="NamedIndividual"/>
-    <hyperlink ref="B4" r:id="rId3" location="NamedIndividual"/>
-    <hyperlink ref="B5" r:id="rId4" location="ObjectProperty"/>
-    <hyperlink ref="B6" r:id="rId5" location="Class"/>
-    <hyperlink ref="B7" r:id="rId6" location="ObjectProperty"/>
-    <hyperlink ref="B8" r:id="rId7" location="Class"/>
-    <hyperlink ref="B9" r:id="rId8" location="ObjectProperty"/>
-    <hyperlink ref="B10" r:id="rId9" location="DatatypeProperty"/>
-    <hyperlink ref="B11" r:id="rId10" location="DatatypeProperty"/>
-    <hyperlink ref="B12" r:id="rId11" location="NamedIndividual"/>
-    <hyperlink ref="B13" r:id="rId12" location="Class"/>
-    <hyperlink ref="B14" r:id="rId13" location="NamedIndividual"/>
-    <hyperlink ref="B15" r:id="rId14" location="NamedIndividual"/>
-    <hyperlink ref="B16" r:id="rId15" location="Class"/>
-    <hyperlink ref="B17" r:id="rId16" location="ObjectProperty"/>
-    <hyperlink ref="B18" r:id="rId17" location="DatatypeProperty"/>
-    <hyperlink ref="B19" r:id="rId18" location="DatatypeProperty"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>